--- a/src/main/resources/IotLife--智能家居管理平台-开发计划.xlsx
+++ b/src/main/resources/IotLife--智能家居管理平台-开发计划.xlsx
@@ -14,13 +14,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>用户模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员模块</t>
+    <t>查询所有用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户通过id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>修改用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试完成度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -28,7 +79,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备类型模块</t>
+    <t>添加设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询设备通过id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户绑定设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户解绑设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设备列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询该用户下绑定设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑用户所有设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,15 +147,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +181,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -378,33 +510,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
